--- a/vertx-pin/zero-ui/src/main/resources/plugin/ui/oob/role/ADMIN.SUPER/falcon.ui.app.xlsx
+++ b/vertx-pin/zero-ui/src/main/resources/plugin/ui/oob/role/ADMIN.SUPER/falcon.ui.app.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ui/src/main/resources/plugin/ui/oob/role/ADMIN.SUPER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3CE22D-DD8A-014C-B5CA-62F8FF443320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5996B1-8EE8-8843-9CC9-C030571774EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41120" yWindow="-3460" windowWidth="47820" windowHeight="27100" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="63620" yWindow="-6740" windowWidth="47820" windowHeight="27100" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>active</t>
   </si>
@@ -140,6 +142,14 @@
   </si>
   <si>
     <t>操作配置读取</t>
+  </si>
+  <si>
+    <t>5892fd5b-37cc-49b5-83db-780ac375f80f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件访问器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -670,7 +680,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -744,6 +754,17 @@
         <v>35</v>
       </c>
     </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>3</v>

--- a/vertx-pin/zero-ui/src/main/resources/plugin/ui/oob/role/ADMIN.SUPER/falcon.ui.app.xlsx
+++ b/vertx-pin/zero-ui/src/main/resources/plugin/ui/oob/role/ADMIN.SUPER/falcon.ui.app.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ui/src/main/resources/plugin/ui/oob/role/ADMIN.SUPER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5996B1-8EE8-8843-9CC9-C030571774EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B464B4F3-A9B1-9F44-91DE-F20C32F8CB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63620" yWindow="-6740" windowWidth="47820" windowHeight="27100" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="64500" yWindow="3840" windowWidth="47820" windowHeight="27100" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -144,11 +144,11 @@
     <t>操作配置读取</t>
   </si>
   <si>
-    <t>5892fd5b-37cc-49b5-83db-780ac375f80f</t>
+    <t>组件访问器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>组件访问器</t>
+    <t>1cfac107-e42e-4097-b530-3c0f0ccccd54</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -680,7 +680,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -759,10 +759,10 @@
         <v>15</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:11">

--- a/vertx-pin/zero-ui/src/main/resources/plugin/ui/oob/role/ADMIN.SUPER/falcon.ui.app.xlsx
+++ b/vertx-pin/zero-ui/src/main/resources/plugin/ui/oob/role/ADMIN.SUPER/falcon.ui.app.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ui/src/main/resources/plugin/ui/oob/role/ADMIN.SUPER/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-ui/src/main/resources/plugin/ui/oob/role/ADMIN.SUPER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B464B4F3-A9B1-9F44-91DE-F20C32F8CB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4B2767-9960-8746-AB73-6955FAE9DD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="64500" yWindow="3840" windowWidth="47820" windowHeight="27100" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="8020" yWindow="5140" windowWidth="38400" windowHeight="22360" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>active</t>
   </si>
@@ -149,6 +149,14 @@
   </si>
   <si>
     <t>1cfac107-e42e-4097-b530-3c0f0ccccd54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2058d59f-a2d1-43ee-b6c1-9687d6018f61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询视图读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -680,7 +688,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -765,6 +773,17 @@
         <v>36</v>
       </c>
     </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>3</v>
